--- a/loaded_influencer_data/myramustache/myramustache_video.xlsx
+++ b/loaded_influencer_data/myramustache/myramustache_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,2508 +506,2569 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@myramustache/video/7489105631887035691</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>615</v>
+      </c>
+      <c r="C2" t="n">
+        <v>65</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>20</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>It is finally giveaway time! Thank you for all the love and support for all my 5000+ followers 🩷
+To win:
+1. You must be following @myramustache on TikTok and Instagram</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>14.63414634146341</v>
+      </c>
+      <c r="I2" t="n">
+        <v>10.56910569105691</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.065040650406504</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.252032520325204</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>고정됨</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@myramustache/video/7489608347734428974</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>167</v>
+      </c>
+      <c r="C3" t="n">
+        <v>65</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>It is finally giveaway time! Thank you for all the love and support for all my 5000+ followers 🩷
+To win:
+1. You must be following @myramustache on TikTok and Instagram</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>53.89221556886228</v>
+      </c>
+      <c r="I3" t="n">
+        <v>38.92215568862276</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>14.97005988023952</v>
+      </c>
+      <c r="L3" t="n">
+        <v>11.97604790419162</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@myramustache/video/7489479953944169774</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>307</v>
+      </c>
+      <c r="C4" t="n">
+        <v>65</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>It is finally giveaway time! Thank you for all the love and support for all my 5000+ followers 🩷
+To win:
+1. You must be following @myramustache on TikTok and Instagram</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>29.31596091205212</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21.17263843648209</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8.143322475570033</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6.514657980456026</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@myramustache/video/7489279517052177706</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>389</v>
+      </c>
+      <c r="C5" t="n">
+        <v>65</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>It is finally giveaway time! Thank you for all the love and support for all my 5000+ followers 🩷
+To win:
+1. You must be following @myramustache on TikTok and Instagram</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>23.13624678663239</v>
+      </c>
+      <c r="I5" t="n">
+        <v>16.7095115681234</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.426735218508997</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.141388174807198</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@myramustache/video/7488880160255544622</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>375</v>
+      </c>
+      <c r="C6" t="n">
+        <v>65</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>20</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>It is finally giveaway time! Thank you for all the love and support for all my 5000+ followers 🩷
+To win:
+1. You must be following @myramustache on TikTok and Instagram</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>24</v>
+      </c>
+      <c r="I6" t="n">
+        <v>17.33333333333334</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5.333333333333334</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@myramustache/video/7488699431035014446</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>579</v>
+      </c>
+      <c r="C7" t="n">
+        <v>65</v>
+      </c>
+      <c r="D7" t="n">
+        <v>25</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>It is finally giveaway time! Thank you for all the love and support for all my 5000+ followers 🩷
+To win:
+1. You must be following @myramustache on TikTok and Instagram</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>15.5440414507772</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11.22625215889465</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.317789291882556</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.454231433506045</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@myramustache/video/7488530012111654190</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>631</v>
+      </c>
+      <c r="C8" t="n">
+        <v>65</v>
+      </c>
+      <c r="D8" t="n">
+        <v>25</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>20</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>It is finally giveaway time! Thank you for all the love and support for all my 5000+ followers 🩷
+To win:
+1. You must be following @myramustache on TikTok and Instagram</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>14.26307448494453</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10.30110935023772</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.961965134706814</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.169572107765452</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@myramustache/video/7488370762953264430</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>443</v>
+      </c>
+      <c r="C9" t="n">
+        <v>65</v>
+      </c>
+      <c r="D9" t="n">
+        <v>25</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>20</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>It is finally giveaway time! Thank you for all the love and support for all my 5000+ followers 🩷
+To win:
+1. You must be following @myramustache on TikTok and Instagram</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>20.31602708803612</v>
+      </c>
+      <c r="I9" t="n">
+        <v>14.67268623024831</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.643340857787811</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.514672686230249</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@myramustache/video/7488128152175217962</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>455</v>
+      </c>
+      <c r="C10" t="n">
+        <v>65</v>
+      </c>
+      <c r="D10" t="n">
+        <v>25</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>It is finally giveaway time! Thank you for all the love and support for all my 5000+ followers 🩷
+To win:
+1. You must be following @myramustache on TikTok and Instagram</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>19.78021978021978</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14.28571428571428</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5.494505494505495</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.395604395604396</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7486977854673161518</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B11" t="n">
         <v>125</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C11" t="n">
         <v>22</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D11" t="n">
         <v>9</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>10</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>gifted by Tula
 I have been loving this 24-7 Moisture SPF ☀️ as a Texan, the sun is always shining so this is perfect 🤩</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="H11" t="n">
         <v>24.8</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I11" t="n">
         <v>17.6</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>7.199999999999999</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L11" t="n">
         <v>8</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7486867158933277995</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B12" t="n">
         <v>456</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C12" t="n">
         <v>66</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D12" t="n">
         <v>10</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>9</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>gifted by Tula
 I have been loving this 24-7 Moisture SPF ☀️ as a Texan, the sun is always shining so this is perfect 🤩</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="H12" t="n">
         <v>16.66666666666666</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I12" t="n">
         <v>14.47368421052632</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>2.192982456140351</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L12" t="n">
         <v>1.973684210526316</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7486621492613041451</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B13" t="n">
         <v>270</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C13" t="n">
         <v>38</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D13" t="n">
         <v>12</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>11</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>This cleansing balm is so easy to use! The applicator is easy to use, all you need to do is twist!
 Check this out before it’s gone 🤭</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="H13" t="n">
         <v>18.51851851851852</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I13" t="n">
         <v>14.07407407407407</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>4.444444444444445</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L13" t="n">
         <v>4.074074074074074</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7486521281588841770</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B14" t="n">
         <v>212</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C14" t="n">
         <v>41</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D14" t="n">
         <v>10</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>12</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Okay this is a pretty good combo!!
 Pheromones and peptides are in this fragrance set for him and her
 Perfect for Mother’s or Father’s Day!</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H14" t="n">
         <v>24.05660377358491</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I14" t="n">
         <v>19.33962264150944</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>4.716981132075472</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L14" t="n">
         <v>5.660377358490567</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7486289090384514347</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B15" t="n">
         <v>393</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C15" t="n">
         <v>62</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D15" t="n">
         <v>12</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>14</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>I love Lesser Evil Popcorn!
 It is organic yet delicious 🍿
 #bestpopcorn #lesserevilyum @LesserEvil Snacks</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H15" t="n">
         <v>18.8295165394402</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I15" t="n">
         <v>15.77608142493639</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.053435114503817</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L15" t="n">
         <v>3.562340966921119</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7486132266394078507</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B16" t="n">
         <v>524</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C16" t="n">
         <v>41</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D16" t="n">
         <v>20</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>15</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>This milkshake toner from Beekman is so cool!
 @Beekman 1802 has the nicest products! 💛</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H16" t="n">
         <v>11.6412213740458</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I16" t="n">
         <v>7.824427480916031</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.816793893129771</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L16" t="n">
         <v>2.862595419847328</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7485920820758465834</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B17" t="n">
         <v>271</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C17" t="n">
         <v>38</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>11</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Directioners rise up ‼️
 This k beauty set is perfect for anyone who has a long history with One Direction 🤭</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H17" t="n">
         <v>19.92619926199262</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I17" t="n">
         <v>14.02214022140221</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>5.904059040590406</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L17" t="n">
         <v>4.059040590405904</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7485842361701076270</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B18" t="n">
         <v>287</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C18" t="n">
         <v>53</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D18" t="n">
         <v>20</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>13</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>This isn’t just a regular eye cream, it has two different formulas made for day and night 🌅🌃
 I love that it is combined in one applicator which make it so easy to use. This is the HERBLOOM Eye Cream.</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H18" t="n">
         <v>25.43554006968641</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I18" t="n">
         <v>18.46689895470383</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>6.968641114982578</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L18" t="n">
         <v>4.529616724738676</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7485771396409429294</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B19" t="n">
         <v>576</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C19" t="n">
         <v>109</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D19" t="n">
         <v>23</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>16</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>I finally found the viral @Fruit Riot at @H-E-B , stay tuned until the end to see my reaction 🫢
 #fruitriot #sourcandy</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H19" t="n">
         <v>22.91666666666666</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I19" t="n">
         <v>18.92361111111111</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.993055555555555</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L19" t="n">
         <v>2.777777777777778</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7485500084096978219</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B20" t="n">
         <v>573</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C20" t="n">
         <v>52</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D20" t="n">
         <v>15</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>15</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>This combo is unmatched!
 This is the Red Booster Reedle Shot + PDRN Essence from VT Cosmetics 🥰
 This duo works to brighten your skin, while boosting it to provide a nice glow.</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H20" t="n">
         <v>11.69284467713787</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I20" t="n">
         <v>9.075043630017451</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>2.617801047120419</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L20" t="n">
         <v>2.617801047120419</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7485392326647401774</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B21" t="n">
         <v>295</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C21" t="n">
         <v>54</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D21" t="n">
         <v>24</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>14</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>The cutest cloud eye pads are from Vitamasques ☁️ these are available at Target!
 #koreanskincare #vitabae</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H21" t="n">
         <v>26.4406779661017</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I21" t="n">
         <v>18.30508474576271</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>8.135593220338983</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L21" t="n">
         <v>4.745762711864407</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7485187116981341482</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B22" t="n">
         <v>449</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C22" t="n">
         <v>40</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D22" t="n">
         <v>14</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>12</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>The cutest cloud eye pads are from Vitamasques ☁️ these are available at Target!
 #koreanskincare #vitabae</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H22" t="n">
         <v>12.02672605790646</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I22" t="n">
         <v>8.908685968819599</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>3.11804008908686</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L22" t="n">
         <v>2.67260579064588</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7485087507831360811</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B23" t="n">
         <v>611</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C23" t="n">
         <v>41</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D23" t="n">
         <v>13</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>15</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>I love having a mini mascara, it’s perfect for having on the go and traveling!
 This is the viral Fan Fest mascara from Benefit Cosmetics 🩷</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H23" t="n">
         <v>8.837970540098199</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I23" t="n">
         <v>6.710310965630114</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>2.127659574468085</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L23" t="n">
         <v>2.454991816693944</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7485025937780641067</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B24" t="n">
         <v>439</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C24" t="n">
         <v>32</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D24" t="n">
         <v>10</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>10</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Purito has the nicest toner ever!
 This is so soothing and really works well 💚
 #purito #puritoseoul #toner @PURITO SEOUL</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H24" t="n">
         <v>9.567198177676538</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I24" t="n">
         <v>7.289293849658314</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>2.277904328018223</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L24" t="n">
         <v>2.277904328018223</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7484721528114924843</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B25" t="n">
         <v>409</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C25" t="n">
         <v>40</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D25" t="n">
         <v>14</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>17</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Gopure has the coolest lip plumper! 👄
 It tingles a bit but the results are worth it.
 @Gopure #gopure</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H25" t="n">
         <v>13.20293398533007</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I25" t="n">
         <v>9.779951100244499</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.422982885085574</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L25" t="n">
         <v>4.156479217603912</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7484663832443587886</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B26" t="n">
         <v>540</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C26" t="n">
         <v>32</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D26" t="n">
         <v>11</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>12</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Elf cosmetics the best!!
 I love this makeup melting cleansing balm 🫧
 @elfcosmetics #elfcosmetics #cleansingbalm</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H26" t="n">
         <v>7.962962962962964</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I26" t="n">
         <v>5.925925925925926</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>2.037037037037037</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L26" t="n">
         <v>2.222222222222222</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7484464777356512554</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B27" t="n">
         <v>260</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C27" t="n">
         <v>32</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D27" t="n">
         <v>13</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>11</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>This portable camera is perfect for spring break!! Kodak has got you covered 🤭
 @Kodak Photo Printer</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H27" t="n">
         <v>17.30769230769231</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I27" t="n">
         <v>12.30769230769231</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>5</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L27" t="n">
         <v>4.230769230769231</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7484417553159310634</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B28" t="n">
         <v>241</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C28" t="n">
         <v>44</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D28" t="n">
         <v>26</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>17</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>@DERMA E has the coolest microdermabrasion scrub 🩷
 Check it out down below ⬇️
 #dermaeskincare</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H28" t="n">
         <v>29.04564315352697</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I28" t="n">
         <v>18.25726141078838</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>10.78838174273859</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L28" t="n">
         <v>7.053941908713693</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7484260164267429166</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B29" t="n">
         <v>748</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C29" t="n">
         <v>96</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D29" t="n">
         <v>23</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>11</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>It is so good!! 🤤
 Go try it today @Dunkin'
 #dunkin #sabrinacarpenter #espresso #espressodrink</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H29" t="n">
         <v>15.90909090909091</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I29" t="n">
         <v>12.83422459893048</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>3.074866310160428</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L29" t="n">
         <v>1.470588235294118</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7484044393205321006</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B30" t="n">
         <v>440</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C30" t="n">
         <v>72</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D30" t="n">
         <v>14</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>10</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>This black honey mascara is amazing!
 The difference in natural lashes vs the Clinique mascara is so noticeable 🤯</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H30" t="n">
         <v>19.54545454545455</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I30" t="n">
         <v>16.36363636363636</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>3.181818181818182</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L30" t="n">
         <v>2.272727272727273</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7483979111300533550</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B31" t="n">
         <v>199</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C31" t="n">
         <v>37</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D31" t="n">
         <v>22</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>12</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Looking to stay cool, this ampoule and cream from Goodal has got you covered! 💦
 @cliocosmetics_global</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H31" t="n">
         <v>29.64824120603015</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I31" t="n">
         <v>18.5929648241206</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>11.05527638190955</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L31" t="n">
         <v>6.030150753768844</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7483892887999073579</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B32" t="n">
         <v>297</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C32" t="n">
         <v>42</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D32" t="n">
         <v>18</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>17</v>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
         <v>20.2020202020202</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I32" t="n">
         <v>14.14141414141414</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>6.060606060606061</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L32" t="n">
         <v>5.723905723905724</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7483657831338528046</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B33" t="n">
         <v>694</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C33" t="n">
         <v>40</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D33" t="n">
         <v>16</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>12</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>What a great price for 10 of these!! And they are perfect for spring and summer ☀️
 They all look and smell so good 🤤</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H33" t="n">
         <v>8.069164265129682</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I33" t="n">
         <v>5.763688760806916</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>2.305475504322767</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L33" t="n">
         <v>1.729106628242075</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7483360816855616799</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B34" t="n">
         <v>779</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C34" t="n">
         <v>50</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D34" t="n">
         <v>20</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>14</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>@PUMIEY has the nicest stuff!
 I love this slim black shirt 🖤
 #pumiey #pumieyshirt #slimshirt #shirt #tiktokshop</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H34" t="n">
         <v>8.985879332477536</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I34" t="n">
         <v>6.418485237483954</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>2.567394094993582</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L34" t="n">
         <v>1.797175866495507</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7483355351547497759</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B35" t="n">
         <v>961</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C35" t="n">
         <v>34</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D35" t="n">
         <v>10</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>11</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Healthy hair is so important and this hair mask from Karseell is amazing!
 @karseellmask #hairmask #healthyhairtips</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H35" t="n">
         <v>4.578563995837669</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I35" t="n">
         <v>3.537981269510926</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>1.040582726326743</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L35" t="n">
         <v>1.144640998959417</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7483180018953227563</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B36" t="n">
         <v>269</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C36" t="n">
         <v>40</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D36" t="n">
         <v>24</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>13</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Heimish has it all 🌟
 Use “GLOWHM30” for 30% your order from Heimish
 #kbeauty #heimishRX #rxserum</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H36" t="n">
         <v>23.79182156133829</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I36" t="n">
         <v>14.86988847583643</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>8.921933085501859</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L36" t="n">
         <v>4.83271375464684</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7482945652998278446</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B37" t="n">
         <v>455</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C37" t="n">
         <v>66</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D37" t="n">
         <v>20</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>10</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>@goldfishsmiles these are so good omg 🥒
 These spicy dill pickle goldfish are crispy and delicious
 #pickle</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H37" t="n">
         <v>18.9010989010989</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I37" t="n">
         <v>14.50549450549451</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>4.395604395604396</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L37" t="n">
         <v>2.197802197802198</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7482793270158855467</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B38" t="n">
         <v>299</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C38" t="n">
         <v>44</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D38" t="n">
         <v>15</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>10</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Happy St. Patrick’s Day 💚🌈
 #ootd #stpattysday #stpatricksday #luckycharm</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H38" t="n">
         <v>19.73244147157191</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I38" t="n">
         <v>14.71571906354515</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>5.016722408026756</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L38" t="n">
         <v>3.344481605351171</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7482478239655497003</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B39" t="n">
         <v>553</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C39" t="n">
         <v>39</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D39" t="n">
         <v>15</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>11</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Charcoal is so cool, and I love this charcoal cleaning balm!
 It is from @HEEDA US 🤩
 #heeda #charcoalcleanser</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H39" t="n">
         <v>9.764918625678119</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I39" t="n">
         <v>7.05244122965642</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>2.7124773960217</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L39" t="n">
         <v>1.989150090415913</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7482394759932218670</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B40" t="n">
         <v>773</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C40" t="n">
         <v>41</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D40" t="n">
         <v>11</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>9</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Charcoal is so cool, and I love this charcoal cleaning balm!
 It is from @HEEDA US 🤩
 #heeda #charcoalcleanser</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H40" t="n">
         <v>6.727037516170762</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I40" t="n">
         <v>5.304010349288486</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>1.423027166882277</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L40" t="n">
         <v>1.164294954721863</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7482231753663384875</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B41" t="n">
         <v>681</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C41" t="n">
         <v>37</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D41" t="n">
         <v>12</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>14</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>This ab machine makes it so easy to work out at home!
 #abworkout #abs #workout #workoutroutine</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H41" t="n">
         <v>7.195301027900147</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I41" t="n">
         <v>5.433186490455213</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>1.762114537444934</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L41" t="n">
         <v>2.055800293685756</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7482161848666557742</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B42" t="n">
         <v>504</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C42" t="n">
         <v>49</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D42" t="n">
         <v>18</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>17</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Panthenol cream is so good for keeping your skins barrier strong 💚
 This one is from Purito and it works so well. Check out the set as well</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H42" t="n">
         <v>13.29365079365079</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I42" t="n">
         <v>9.722222222222223</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>3.571428571428571</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L42" t="n">
         <v>3.373015873015873</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7482055097393007918</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B43" t="n">
         <v>303</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C43" t="n">
         <v>51</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D43" t="n">
         <v>28</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>10</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>I absolutely adore Avatara Skincare! Watch me unbox some goodies from my welcome package 😊
 I love their cleaner and use it every night before bed! 🫶</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H43" t="n">
         <v>26.07260726072607</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I43" t="n">
         <v>16.83168316831683</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>9.240924092409241</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L43" t="n">
         <v>3.3003300330033</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7481759346431462698</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B44" t="n">
         <v>255</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C44" t="n">
         <v>46</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D44" t="n">
         <v>15</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>17</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>This beauty pack of Sun Zapper sticks are so cool! I love that they have SPF 50+ and are super pigmented! 😌
 Grab them from my AMZ showcase 🔗</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H44" t="n">
         <v>23.92156862745098</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I44" t="n">
         <v>18.03921568627451</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>5.88235294117647</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L44" t="n">
         <v>6.666666666666667</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7481684342415248686</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B45" t="n">
         <v>637</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C45" t="n">
         <v>30</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D45" t="n">
         <v>11</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>11</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>I love these blemish treatment cotton balls! ✨
 They are such good quality and are so absorbent.
 @COSRX Official</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H45" t="n">
         <v>6.436420722135009</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I45" t="n">
         <v>4.709576138147567</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>1.726844583987441</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L45" t="n">
         <v>1.726844583987441</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7481393768772439338</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B46" t="n">
         <v>424</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C46" t="n">
         <v>75</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D46" t="n">
         <v>26</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>16</v>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="n">
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="n">
         <v>23.82075471698113</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I46" t="n">
         <v>17.68867924528302</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>6.132075471698113</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L46" t="n">
         <v>3.773584905660377</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7481342511764589867</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B47" t="n">
         <v>550</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C47" t="n">
         <v>37</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D47" t="n">
         <v>15</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>13</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>@belif USA has the coolest products!
 These are the super drops that provide a nice glow to the skin 🌟
 #belif</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H47" t="n">
         <v>9.454545454545455</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I47" t="n">
         <v>6.727272727272728</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>2.727272727272727</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L47" t="n">
         <v>2.363636363636364</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7481133738034728235</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B48" t="n">
         <v>466</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C48" t="n">
         <v>32</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D48" t="n">
         <v>17</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>9</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>This midnight line is so nice and soothing 💙
 @klairs.us #klairs #klairsmidnightbluecalmingcream #calmingcream</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H48" t="n">
         <v>10.51502145922747</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I48" t="n">
         <v>6.866952789699571</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>3.648068669527897</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L48" t="n">
         <v>1.931330472103004</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7481012069584637227</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B49" t="n">
         <v>431</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C49" t="n">
         <v>42</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D49" t="n">
         <v>12</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>13</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Naked Sundays blush for the win 🫶
 It is on my skin in the video but I just wanted to share the packaging!</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H49" t="n">
         <v>12.52900232018562</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I49" t="n">
         <v>9.744779582366588</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>2.784222737819025</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L49" t="n">
         <v>3.016241299303944</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7480946315002776874</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B50" t="n">
         <v>994</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C50" t="n">
         <v>49</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D50" t="n">
         <v>26</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>19</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>This bracelet set is so nice! And it is a great find on the TikTok shop 🤭
 #bracelet #braceletset #tiktokmademebuyit</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H50" t="n">
         <v>7.545271629778671</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I50" t="n">
         <v>4.929577464788732</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>2.61569416498994</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L50" t="n">
         <v>1.911468812877264</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@myramustache/video/7480709195986128170</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B51" t="n">
         <v>574</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C51" t="n">
         <v>60</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D51" t="n">
         <v>26</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>18</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>These donuts are so yummy and have such good ingredients!
 Check out donutful 🍩
 @bakeful #donutful #donut #donuts</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H51" t="n">
         <v>14.98257839721254</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I51" t="n">
         <v>10.45296167247387</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>4.529616724738676</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L51" t="n">
         <v>3.13588850174216</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-03-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@myramustache/video/7480643271841058078</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>418</v>
-      </c>
-      <c r="C43" t="n">
-        <v>53</v>
-      </c>
-      <c r="D43" t="n">
-        <v>19</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>19</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Snail mucin mask for the win 🐌 @Seoul Ceuticals
-#facemask #snailmucin #snailmask</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>17.22488038277512</v>
-      </c>
-      <c r="I43" t="n">
-        <v>12.67942583732057</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>4.545454545454546</v>
-      </c>
-      <c r="L43" t="n">
-        <v>4.545454545454546</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>2025-03-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@myramustache/video/7480594232961404203</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>469</v>
-      </c>
-      <c r="C44" t="n">
-        <v>45</v>
-      </c>
-      <c r="D44" t="n">
-        <v>18</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>17</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>These pimple patches from @Livaclean are so cute!!
-#pimplepatch #acnepatch #acne #pimple</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>13.43283582089552</v>
-      </c>
-      <c r="I44" t="n">
-        <v>9.594882729211088</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>3.837953091684435</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3.624733475479744</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>2025-03-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@myramustache/video/7480426501465197870</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>691</v>
-      </c>
-      <c r="C45" t="n">
-        <v>44</v>
-      </c>
-      <c r="D45" t="n">
-        <v>9</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>8</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Taste test coming soon 🤭🤭
-@Myra :) here is my first taste test of the milk chocolate one 🍫</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>7.670043415340087</v>
-      </c>
-      <c r="I45" t="n">
-        <v>6.367583212735166</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>1.30246020260492</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1.157742402315485</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@myramustache/video/7480265706060238123</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>447</v>
-      </c>
-      <c r="C46" t="n">
-        <v>45</v>
-      </c>
-      <c r="D46" t="n">
-        <v>23</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>18</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>This watermelon under eye serum is so nice 🍉 plus it’s on sale
-@Nature Spell Inc #undereyes #eyeserum</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>15.21252796420582</v>
-      </c>
-      <c r="I46" t="n">
-        <v>10.06711409395973</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>5.145413870246085</v>
-      </c>
-      <c r="L46" t="n">
-        <v>4.026845637583892</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@myramustache/video/7480215765648444718</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>547</v>
-      </c>
-      <c r="C47" t="n">
-        <v>52</v>
-      </c>
-      <c r="D47" t="n">
-        <v>14</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>13</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>This watermelon under eye serum is so nice 🍉 plus it’s on sale
-@Nature Spell Inc #undereyes #eyeserum</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>12.06581352833638</v>
-      </c>
-      <c r="I47" t="n">
-        <v>9.506398537477148</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>2.559414990859232</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.376599634369287</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@myramustache/video/7479985691905019179</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>884</v>
-      </c>
-      <c r="C48" t="n">
-        <v>41</v>
-      </c>
-      <c r="D48" t="n">
-        <v>6</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>4</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>This is a hot suit and it’s ideal for using during exercising!
-It has the effects of a sauna in the form of a wearable sweat suit 😅</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>5.316742081447964</v>
-      </c>
-      <c r="I48" t="n">
-        <v>4.638009049773756</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.6787330316742082</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.4524886877828055</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-03-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@myramustache/video/7479917666623393070</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>399</v>
-      </c>
-      <c r="C49" t="n">
-        <v>39</v>
-      </c>
-      <c r="D49" t="n">
-        <v>17</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>14</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>This scent is so good!!
-It has a perfect mix of cheeey, jasmine, and almond
-#dossier #dossierperfumes #perfume</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>14.03508771929824</v>
-      </c>
-      <c r="I49" t="n">
-        <v>9.774436090225564</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>4.260651629072681</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.508771929824561</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-03-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@myramustache/video/7479848358153178410</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>534</v>
-      </c>
-      <c r="C50" t="n">
-        <v>45</v>
-      </c>
-      <c r="D50" t="n">
-        <v>14</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>17</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>This heart necklace is so cute! Grabs yours today 🫶
-#necklace #cheaptiktokshopfinds</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>11.04868913857678</v>
-      </c>
-      <c r="I50" t="n">
-        <v>8.426966292134832</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>2.621722846441948</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3.183520599250937</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2025-03-10</t>
         </is>
       </c>
     </row>
